--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3999.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3999.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.366433714261012</v>
+        <v>1.353242993354797</v>
       </c>
       <c r="B1">
-        <v>2.502496126685048</v>
+        <v>3.427502155303955</v>
       </c>
       <c r="C1">
-        <v>3.320748824368669</v>
+        <v>5.281919479370117</v>
       </c>
       <c r="D1">
-        <v>3.879754392580764</v>
+        <v>7.505433082580566</v>
       </c>
       <c r="E1">
-        <v>1.871035288995502</v>
+        <v>2.738493204116821</v>
       </c>
     </row>
   </sheetData>
